--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Casess.xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Casess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AA6504-7F13-4646-9E85-61FCB0361CE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60F52D-D285-4CDB-A328-6480567EADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="252">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -793,10 +793,6 @@
 χάρτες;</t>
   </si>
   <si>
-    <t>Διεύθυνση:   Τραχανίδωηβξβνν 44           
-Έγκυρη Τιμή</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. Επιλέγουμε Προσθήκη 
 Διεύθυνσης. </t>
   </si>
@@ -918,69 +914,143 @@
     <t>TC_MaxShops_02</t>
   </si>
   <si>
+    <t>TC_MaxShops_03</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική διαδικασία παραγγελίας;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Δημιουργία Δωματίου: UI </t>
+  </si>
+  <si>
+    <t>TC_MaxShops_04</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική επιλογή κατηγορίας;</t>
+  </si>
+  <si>
+    <t>TC_MaxShops_05</t>
+  </si>
+  <si>
+    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική επιλογή καταστήματος;</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση της οθόνης δημιουργίας δωματίου, η οποία περιέχει τις επιλογές φίλτρων.</t>
+  </si>
+  <si>
+    <t>Η ομαδική επιλογή κατηγορίας δύναται να συνεχιστεί  χωρίς κανένα πρόβλημα.</t>
+  </si>
+  <si>
+    <t>Η ομαδική επιλογή καταστήματος δεν μπορεί να ολοκληρωθεί.</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε τον αριθμό 0 στο πεδίο "Πλήθος Καταστημάτων".</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε "Δημιουργία Δωματίου".</t>
+  </si>
+  <si>
+    <t>2. Επιλέγουμε τον αριθμό 30 στο πεδίο "Πλήθος Καταστημάτων".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Επιλέγουμε τον αριθμό 0 στο πεδίο "Πλήθος Καταστημάτων". </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ο Πελάτης δεν έχει την δυνατότητα να προχωρήσει στην επιλογή καταστήματος, καθώς δεν εμφανίζονται καταστήματα στην οθόνη του. </t>
+  </si>
+  <si>
+    <t>Η ομαδική επιλογή διαδικασία παραγγελίας θα προχωρήσει χωρίς κανένα πρόβλημα.</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε "Δημιουργία Δωματίου" .</t>
+  </si>
+  <si>
+    <t>Διεύθυνση:   Τραχανίδωηβξβνν 44           
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
+    <t>Διεύθυνση: Τραχανίδων 44           
+Έγκυρη Τιμή</t>
+  </si>
+  <si>
     <t>Αριθμός προβολής καταστημάτων: 
 0
 Έγκυρη Τιμή</t>
   </si>
   <si>
-    <t>TC_MaxShops_03</t>
-  </si>
-  <si>
-    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική διαδικασία παραγγελίας;</t>
-  </si>
-  <si>
     <t>Αριθμός προβολής καταστημάτων: 
 30
 Έγκυρη Τιμή</t>
   </si>
   <si>
-    <t xml:space="preserve">1. Επιλέγουμε "Δημιουργία Δωματίου" </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Δημιουργία Δωματίου: UI </t>
-  </si>
-  <si>
-    <t>TC_MaxShops_04</t>
-  </si>
-  <si>
-    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική επιλογή κατηγορίας;</t>
-  </si>
-  <si>
-    <t>TC_MaxShops_05</t>
-  </si>
-  <si>
-    <t>Αν ο Πελάτης ορίσει τον αριθμό προβολής καταστημάτων, θα μπορέσει να συνεχίσει με την ομαδική επιλογή καταστήματος;</t>
-  </si>
-  <si>
-    <t>1. Εμφάνιση της οθόνης δημιουργίας δωματίου, η οποία περιέχει τις επιλογές φίλτρων.</t>
-  </si>
-  <si>
-    <t>Η ομαδική επιλογή κατηγορίας δύναται να συνεχιστεί  χωρίς κανένα πρόβλημα.</t>
-  </si>
-  <si>
-    <t>Η ομαδική επιλογή καταστήματος δεν μπορεί να ολοκληρωθεί.</t>
-  </si>
-  <si>
-    <t>2. Επιλέγουμε τον αριθμό 0 στο πεδίο "Πλήθος Καταστημάτων".</t>
-  </si>
-  <si>
-    <t>1. Επιλέγουμε "Δημιουργία Δωματίου".</t>
-  </si>
-  <si>
-    <t>2. Επιλέγουμε τον αριθμό 30 στο πεδίο "Πλήθος Καταστημάτων".</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2. Επιλέγουμε τον αριθμό 0 στο πεδίο "Πλήθος Καταστημάτων". </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ο Πελάτης δεν έχει την δυνατότητα να προχωρήσει στην επιλογή καταστήματος, καθώς δεν εμφανίζονται καταστήματα στην οθόνη του. </t>
-  </si>
-  <si>
-    <t>Η ομαδική επιλογή διαδικασία παραγγελίας θα προχωρήσει χωρίς κανένα πρόβλημα.</t>
-  </si>
-  <si>
-    <t>Διεύθυνση: Τραχανίδων 44           
-Έγκυρη Τιμή</t>
+    <t>TC_ItsAMatch_01</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση οθονών 
+Καταστημάτων.</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε και οι 3 χρήστες
+like σε κοινό Κατάστημα.</t>
+  </si>
+  <si>
+    <t>Οθόνη ταιριάσματος 
+Καταστήματος.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Εμφάνιση οθονών
+Κατηγοριών. </t>
+  </si>
+  <si>
+    <t>Οθόνη Καταστήματος: UI</t>
+  </si>
+  <si>
+    <t>Οθόνη Κατηγορίας 
+Φαγητού: UI</t>
+  </si>
+  <si>
+    <t>Οθόνη ταιριάσματος 
+Κατηγορίας.</t>
+  </si>
+  <si>
+    <t>TC_NumberOfLikes_01</t>
+  </si>
+  <si>
+    <t>Αν και οι τρεις Πελάτες του δωματίου, κάνουν like
+σε συγκεκριμένη κατηγορία,
+θα εμφανιστεί οθόνη 
+ταιριάσματος;</t>
+  </si>
+  <si>
+    <t>Αν και οι τρεις Πελάτες του δωματίου κάνουν like
+σε συγκεκριμένο Κατάστημα,
+θα εμφανιστεί οθόνη 
+ταιριάσματος;</t>
+  </si>
+  <si>
+    <t>Αν τρεις Πελάτες ενός δωματίου με μέλη &gt; 3, κάνουν like
+σε συγκεκριμένο Κατάστημα, θα εμφανιστεί το σωστό άθροισμα likes στην οθόνη τελικής ψηφοφορίας;</t>
+  </si>
+  <si>
+    <t>Οθόνη τελικής ψηφοφορίας με 
+3 likes στο κοινό Κατάστημα.</t>
+  </si>
+  <si>
+    <t>Αν τρεις Πελάτες ενός δωματίου με μέλη &gt; 3, κάνουν like
+σε συγκεκριμένο Κατηγορία, θα εμφανιστεί το σωστό άθροισμα likes στην οθόνη τελικής ψηφοφορίας;</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε και οι 3 χρήστες
+like σε κοινή Κατηγορία.</t>
+  </si>
+  <si>
+    <t>TC_ItsAMatch_02</t>
+  </si>
+  <si>
+    <t>TC_NumberOfLikes_02</t>
+  </si>
+  <si>
+    <t>Οθόνη επιλεγμένων Κατηγοριών με 3 likes στη κοινή Κατηγορία.</t>
   </si>
 </sst>
 </file>
@@ -1115,7 +1185,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1163,12 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1489,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
-  <dimension ref="A1:O102"/>
+  <dimension ref="A1:O111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A111" sqref="A111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2449,7 +2513,7 @@
         <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>17</v>
@@ -2458,7 +2522,7 @@
         <v>170</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G72" s="11" t="s">
         <v>168</v>
@@ -2486,7 +2550,7 @@
         <v>175</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -2495,7 +2559,7 @@
         <v>170</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>168</v>
@@ -2506,19 +2570,19 @@
         <v>172</v>
       </c>
       <c r="G76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H76" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A78" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="B78" s="18" t="s">
         <v>181</v>
-      </c>
-      <c r="B78" s="18" t="s">
-        <v>182</v>
       </c>
       <c r="C78" s="7" t="s">
         <v>10</v>
@@ -2527,38 +2591,38 @@
         <v>9</v>
       </c>
       <c r="E78" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="F78" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="F78" s="8" t="s">
-        <v>184</v>
-      </c>
       <c r="G78" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="F79" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F80" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G80" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H80" s="8" t="s">
         <v>188</v>
-      </c>
-      <c r="H80" s="8" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="82" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B82" s="8" t="s">
         <v>190</v>
-      </c>
-      <c r="B82" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="C82" s="7" t="s">
         <v>10</v>
@@ -2567,30 +2631,30 @@
         <v>9</v>
       </c>
       <c r="E82" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="F82" s="8" t="s">
-        <v>193</v>
-      </c>
       <c r="G82" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="F83" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A85" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="B85" s="8" t="s">
         <v>197</v>
-      </c>
-      <c r="B85" s="8" t="s">
-        <v>198</v>
       </c>
       <c r="C85" s="3" t="s">
         <v>10</v>
@@ -2599,48 +2663,48 @@
         <v>9</v>
       </c>
       <c r="E85" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F85" s="8" t="s">
         <v>199</v>
       </c>
-      <c r="F85" s="8" t="s">
-        <v>200</v>
-      </c>
       <c r="G85" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="F86" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G86" s="8" t="s">
         <v>201</v>
       </c>
-      <c r="G86" s="8" t="s">
+      <c r="H86" s="8" t="s">
         <v>202</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="88" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B88" s="8" t="s">
         <v>205</v>
       </c>
-      <c r="B88" s="8" t="s">
+      <c r="C88" s="8" t="s">
         <v>206</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>207</v>
       </c>
       <c r="D88" s="8" t="s">
         <v>17</v>
       </c>
       <c r="E88" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F88" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>209</v>
-      </c>
       <c r="G88" s="8" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
@@ -2657,13 +2721,13 @@
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="G89" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="H89" s="8" t="s">
         <v>211</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="H89" s="8" t="s">
-        <v>212</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2673,27 +2737,27 @@
       <c r="N89" s="1"/>
     </row>
     <row r="90" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="91" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B91" s="20" t="s">
-        <v>206</v>
+        <v>212</v>
+      </c>
+      <c r="B91" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E91" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="F91" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F91" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="G91" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="H91" s="1"/>
       <c r="I91" s="1"/>
@@ -2710,13 +2774,13 @@
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" s="1"/>
@@ -2742,27 +2806,27 @@
       <c r="N93" s="19"/>
       <c r="O93" s="19"/>
     </row>
-    <row r="94" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B94" s="21" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="B94" s="8" t="s">
+        <v>214</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>217</v>
+        <v>233</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E94" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F94" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="G94" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
@@ -2779,11 +2843,11 @@
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2809,27 +2873,27 @@
       <c r="N96" s="19"/>
       <c r="O96" s="19"/>
     </row>
-    <row r="97" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B97" s="20" t="s">
-        <v>221</v>
+        <v>216</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E97" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F97" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>228</v>
-      </c>
       <c r="G97" s="2" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H97" s="2"/>
       <c r="I97" s="1"/>
@@ -2846,11 +2910,11 @@
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
       <c r="F98" s="2" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" s="1"/>
@@ -2876,27 +2940,27 @@
       <c r="N99" s="19"/>
       <c r="O99" s="19"/>
     </row>
-    <row r="100" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B100" s="8" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="D100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="E100" s="8" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F100" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="G100" s="8" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="H100" s="8"/>
       <c r="I100" s="1"/>
@@ -2913,11 +2977,11 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G101" s="8"/>
       <c r="H101" s="8" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" s="1"/>
@@ -2927,6 +2991,117 @@
       <c r="N101" s="1"/>
     </row>
     <row r="102" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A103" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="107" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A107" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="109" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A109" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A111" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Casess.xlsx
+++ b/docs/contributions/AthanasiaZ/Writing-Charts/Phase6/Test Casess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\git-ΤΛ\nomnomr\docs\contributions\AthanasiaZ\Writing-Charts\Phase6\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE60F52D-D285-4CDB-A328-6480567EADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8B9F89-5A69-4C93-AED9-D1FEAD986749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9560D621-A71A-4FED-9B46-A878053B0129}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="259">
   <si>
     <t>Αναμενόμενο Αποτέλεσμα</t>
   </si>
@@ -861,9 +861,6 @@
 UI</t>
   </si>
   <si>
-    <t>TC_SortBySelect_01</t>
-  </si>
-  <si>
     <t>Αν κανένας Πελάτης δεν επιλέξει κατηγορία φαγητού κατά την ομαδική επιλογή, θα συνεχίσει η ομαδική παραγγελία;</t>
   </si>
   <si>
@@ -1051,6 +1048,42 @@
   </si>
   <si>
     <t>Οθόνη επιλεγμένων Κατηγοριών με 3 likes στη κοινή Κατηγορία.</t>
+  </si>
+  <si>
+    <t>Αν κανένας Πελάτης δεν 
+επιλέξει Κατάστημα, 
+κατά την ομαδική επιλογή, 
+θα συνεχίσει η ομαδική 
+παραγγελία;</t>
+  </si>
+  <si>
+    <t>1. Εμφάνιση της οθόνης με 
+Κατάστημα και επιλογές "Μου
+Αρέσει", "Δεν μου αρέσει" και
+superlike.</t>
+  </si>
+  <si>
+    <t>1. Επιλέγουμε "Δεν μου αρέσει"
+σε κάθε κατάστημα.</t>
+  </si>
+  <si>
+    <t>1. Προχωράμε στην ομαδική
+επιλογή Καταστήματος.</t>
+  </si>
+  <si>
+    <t>Οθόνη Καταστήματος:
+UI</t>
+  </si>
+  <si>
+    <t>Δεν υπάρχει κοινή επιλογή ή 
+επιλεγμένο Κατάστημα και έτσι 
+δεν δίδεται επιλογή "Ας προχωρήσουμε",  αλλά εμφανίζεται οθόνες "Μήπως είσαι Λέων;".</t>
+  </si>
+  <si>
+    <t>TC_NumberOfLikes_03</t>
+  </si>
+  <si>
+    <t>TC_NumberOfLikes_04</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1233,6 +1266,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1553,10 +1589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2931A8B3-73A4-401C-858F-6C111952F06B}">
-  <dimension ref="A1:O111"/>
+  <dimension ref="A1:Q113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A111" sqref="A111"/>
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D118" sqref="D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2513,7 +2549,7 @@
         <v>171</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>17</v>
@@ -2550,7 +2586,7 @@
         <v>175</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -2645,65 +2681,83 @@
         <v>193</v>
       </c>
       <c r="H83" s="8" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="85" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A85" s="18" t="s">
-        <v>196</v>
+      <c r="A85" s="8" t="s">
+        <v>203</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>10</v>
+        <v>204</v>
+      </c>
+      <c r="C85" s="8" t="s">
+        <v>205</v>
       </c>
       <c r="D85" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="F85" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="G85" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
+      <c r="K85" s="1"/>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1"/>
+      <c r="C86" s="8"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G86" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="H86" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="88" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A88" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="B88" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="D88" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E85" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F85" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G85" s="8" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="F86" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="G86" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="H86" s="8" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="88" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A88" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B88" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C88" s="8" t="s">
+      <c r="E88" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="D88" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E88" s="8" t="s">
+      <c r="F88" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="F88" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G88" s="8" t="s">
+      <c r="G88" s="2" t="s">
         <v>186</v>
       </c>
       <c r="H88" s="1"/>
@@ -2714,20 +2768,20 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="72" x14ac:dyDescent="0.3">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="8"/>
+      <c r="C89" s="1"/>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="G89" s="8" t="s">
-        <v>209</v>
+      <c r="F89" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>208</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" s="1"/>
@@ -2736,30 +2790,46 @@
       <c r="M89" s="1"/>
       <c r="N89" s="1"/>
     </row>
-    <row r="90" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="19"/>
+      <c r="B90" s="19"/>
+      <c r="C90" s="19"/>
+      <c r="D90" s="19"/>
+      <c r="E90" s="19"/>
+      <c r="F90" s="19"/>
+      <c r="G90" s="19"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="19"/>
+      <c r="M90" s="19"/>
+      <c r="N90" s="19"/>
+      <c r="O90" s="19"/>
+    </row>
     <row r="91" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="2" t="s">
         <v>212</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="C91" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C91" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="D91" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E91" s="8" t="s">
-        <v>207</v>
+      <c r="D91" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>219</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H91" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="H91" s="2"/>
       <c r="I91" s="1"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
@@ -2767,19 +2837,17 @@
       <c r="M91" s="1"/>
       <c r="N91" s="1"/>
     </row>
-    <row r="92" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="H92" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2" t="s">
         <v>227</v>
       </c>
       <c r="I92" s="1"/>
@@ -2808,25 +2876,25 @@
     </row>
     <row r="94" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="2" t="s">
-        <v>220</v>
+      <c r="E94" s="8" t="s">
+        <v>219</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H94" s="2"/>
       <c r="I94" s="1"/>
@@ -2840,14 +2908,14 @@
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
-      <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
       <c r="F95" s="2" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" s="1"/>
@@ -2873,29 +2941,29 @@
       <c r="N96" s="19"/>
       <c r="O96" s="19"/>
     </row>
-    <row r="97" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>216</v>
+    <row r="97" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A97" s="8" t="s">
+        <v>217</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>17</v>
+        <v>218</v>
+      </c>
+      <c r="C97" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="D97" s="8" t="s">
+        <v>9</v>
       </c>
       <c r="E97" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H97" s="2"/>
+        <v>219</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>228</v>
+      </c>
+      <c r="G97" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="H97" s="8"/>
       <c r="I97" s="1"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
@@ -2903,17 +2971,17 @@
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
     </row>
-    <row r="98" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
-      <c r="B98" s="1"/>
-      <c r="C98" s="1"/>
-      <c r="D98" s="2"/>
-      <c r="E98" s="2"/>
-      <c r="F98" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G98" s="2"/>
-      <c r="H98" s="2" t="s">
+    <row r="98" spans="1:17" ht="42" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="8"/>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8"/>
+      <c r="D98" s="8"/>
+      <c r="E98" s="8"/>
+      <c r="F98" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G98" s="8"/>
+      <c r="H98" s="8" t="s">
         <v>221</v>
       </c>
       <c r="I98" s="1"/>
@@ -2923,185 +2991,202 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A99" s="19"/>
-      <c r="B99" s="19"/>
-      <c r="C99" s="19"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
-      <c r="F99" s="19"/>
-      <c r="G99" s="19"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="19"/>
-      <c r="M99" s="19"/>
-      <c r="N99" s="19"/>
-      <c r="O99" s="19"/>
-    </row>
-    <row r="100" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A100" s="8" t="s">
-        <v>218</v>
-      </c>
-      <c r="B100" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C100" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="D100" s="8" t="s">
+    <row r="99" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A100" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="104" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="105" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="106" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A106" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A108" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E100" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F100" s="8" t="s">
-        <v>229</v>
-      </c>
-      <c r="G100" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="H100" s="8"/>
-      <c r="I100" s="1"/>
-      <c r="J100" s="1"/>
-      <c r="K100" s="1"/>
-      <c r="L100" s="1"/>
-      <c r="M100" s="1"/>
-      <c r="N100" s="1"/>
-    </row>
-    <row r="101" spans="1:15" ht="42" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="8"/>
-      <c r="B101" s="8"/>
-      <c r="C101" s="8"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
-        <v>223</v>
-      </c>
-      <c r="G101" s="8"/>
-      <c r="H101" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="I101" s="1"/>
-      <c r="J101" s="1"/>
-      <c r="K101" s="1"/>
-      <c r="L101" s="1"/>
-      <c r="M101" s="1"/>
-      <c r="N101" s="1"/>
-    </row>
-    <row r="102" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="103" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A103" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="B103" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C103" s="3" t="s">
+      <c r="E108" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="F108" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G108" s="8" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="F109" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="G109" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="H109" s="8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A110" s="5"/>
+      <c r="B110" s="5"/>
+      <c r="C110" s="5"/>
+      <c r="D110" s="5"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="20"/>
+      <c r="G110" s="20"/>
+      <c r="H110" s="20"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="5"/>
+      <c r="L110" s="5"/>
+      <c r="M110" s="5"/>
+      <c r="N110" s="5"/>
+      <c r="O110" s="5"/>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="5"/>
+    </row>
+    <row r="111" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+      <c r="A111" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D103" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G103" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H103" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="104" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="105" spans="1:15" ht="72" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>249</v>
-      </c>
-      <c r="B105" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F105" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G105" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="106" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="107" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A107" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="B107" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="G107" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="H107" s="2" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="108" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="109" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A109" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="C109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="F109" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="G109" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="H109" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="110" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A111" s="3"/>
-    </row>
+      <c r="D111" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="F111" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="G111" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="H111" s="8"/>
+    </row>
+    <row r="112" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="F112" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="G112" s="8"/>
+      <c r="H112" s="8" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="113" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
